--- a/Code/Results/Cases/Case_0_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_220/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9211548577842684</v>
+        <v>1.129247026424488</v>
       </c>
       <c r="D2">
-        <v>0.9372930790956209</v>
+        <v>1.130722603127263</v>
       </c>
       <c r="E2">
-        <v>0.9387638939097546</v>
+        <v>1.127063990637527</v>
       </c>
       <c r="F2">
-        <v>0.942937689373968</v>
+        <v>1.14098192733876</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9459798426808215</v>
+        <v>1.133896276542331</v>
       </c>
       <c r="K2">
-        <v>0.9497011328626304</v>
+        <v>1.13327088222099</v>
       </c>
       <c r="L2">
-        <v>0.951147829728791</v>
+        <v>1.1296209710029</v>
       </c>
       <c r="M2">
-        <v>0.9552537106274015</v>
+        <v>1.14350612594359</v>
       </c>
       <c r="N2">
-        <v>0.9473232425628327</v>
+        <v>1.135506539314743</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.954887225709078</v>
+        <v>1.133225707344481</v>
       </c>
       <c r="D3">
-        <v>0.9686653117937317</v>
+        <v>1.134456356757958</v>
       </c>
       <c r="E3">
-        <v>0.9693133699795969</v>
+        <v>1.130691390990533</v>
       </c>
       <c r="F3">
-        <v>0.9750176694521488</v>
+        <v>1.144817092886283</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9766881117004468</v>
+        <v>1.137541038352138</v>
       </c>
       <c r="K3">
-        <v>0.9797154724465331</v>
+        <v>1.136825465177155</v>
       </c>
       <c r="L3">
-        <v>0.9803545561207717</v>
+        <v>1.13306876888923</v>
       </c>
       <c r="M3">
-        <v>0.9859805086244946</v>
+        <v>1.147163744512365</v>
       </c>
       <c r="N3">
-        <v>0.9780751208467536</v>
+        <v>1.139156477104379</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9739141511971822</v>
+        <v>1.135778047712894</v>
       </c>
       <c r="D4">
-        <v>0.9863805688012179</v>
+        <v>1.136850916933994</v>
       </c>
       <c r="E4">
-        <v>0.98656563601453</v>
+        <v>1.133017400812488</v>
       </c>
       <c r="F4">
-        <v>0.9931374290622266</v>
+        <v>1.147277086463468</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9940095217140581</v>
+        <v>1.139877754619945</v>
       </c>
       <c r="K4">
-        <v>0.9966461960003354</v>
+        <v>1.139104018246755</v>
       </c>
       <c r="L4">
-        <v>0.9968289526412377</v>
+        <v>1.135278475611613</v>
       </c>
       <c r="M4">
-        <v>1.003319391057349</v>
+        <v>1.149508788926253</v>
       </c>
       <c r="N4">
-        <v>0.9954211292493781</v>
+        <v>1.141496511777311</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9814051706834672</v>
+        <v>1.136845932583764</v>
       </c>
       <c r="D5">
-        <v>0.9933582874206158</v>
+        <v>1.137852628575423</v>
       </c>
       <c r="E5">
-        <v>0.9933610807202337</v>
+        <v>1.133990353537638</v>
       </c>
       <c r="F5">
-        <v>1.000275581028525</v>
+        <v>1.14830626510601</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.000828094108585</v>
+        <v>1.140855084841424</v>
       </c>
       <c r="K5">
-        <v>1.003310907375275</v>
+        <v>1.140056938218034</v>
       </c>
       <c r="L5">
-        <v>1.003313667261427</v>
+        <v>1.136202508391054</v>
       </c>
       <c r="M5">
-        <v>1.01014616443502</v>
+        <v>1.150489622383769</v>
       </c>
       <c r="N5">
-        <v>1.002249384798806</v>
+        <v>1.142475229919806</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9826365940549523</v>
+        <v>1.137024940099218</v>
       </c>
       <c r="D6">
-        <v>0.9945054801310536</v>
+        <v>1.138020534239541</v>
       </c>
       <c r="E6">
-        <v>0.9944783050924101</v>
+        <v>1.13415343382701</v>
       </c>
       <c r="F6">
-        <v>1.001449214189461</v>
+        <v>1.148478780285695</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.001948896741565</v>
+        <v>1.141018892970114</v>
       </c>
       <c r="K6">
-        <v>1.004406409915894</v>
+        <v>1.140216650092962</v>
       </c>
       <c r="L6">
-        <v>1.004379557628087</v>
+        <v>1.136357373131804</v>
       </c>
       <c r="M6">
-        <v>1.011268385205037</v>
+        <v>1.150654018841646</v>
       </c>
       <c r="N6">
-        <v>1.003371779100083</v>
+        <v>1.142639270674829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9740160801549308</v>
+        <v>1.135792336721849</v>
       </c>
       <c r="D7">
-        <v>0.9864755024912891</v>
+        <v>1.136864321128296</v>
       </c>
       <c r="E7">
-        <v>0.9866580897631252</v>
+        <v>1.133030420500037</v>
       </c>
       <c r="F7">
-        <v>0.9932345410996918</v>
+        <v>1.147290857830433</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9941023057826268</v>
+        <v>1.139890833281393</v>
       </c>
       <c r="K7">
-        <v>0.9967368869187535</v>
+        <v>1.139116770578635</v>
       </c>
       <c r="L7">
-        <v>0.9969171958890543</v>
+        <v>1.135290841737633</v>
       </c>
       <c r="M7">
-        <v>1.003412281775655</v>
+        <v>1.14952191439</v>
       </c>
       <c r="N7">
-        <v>0.9955140450819662</v>
+        <v>1.141509609011959</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9332614136582155</v>
+        <v>1.13059633255364</v>
       </c>
       <c r="D8">
-        <v>0.9485467952280189</v>
+        <v>1.131988982407891</v>
       </c>
       <c r="E8">
-        <v>0.9497218599358378</v>
+        <v>1.12829436932283</v>
       </c>
       <c r="F8">
-        <v>0.9544441415995101</v>
+        <v>1.142282620110824</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9570001026673092</v>
+        <v>1.135132633570559</v>
       </c>
       <c r="K8">
-        <v>0.9604719882733177</v>
+        <v>1.134476721655373</v>
       </c>
       <c r="L8">
-        <v>0.9616288838677641</v>
+        <v>1.130790667433169</v>
       </c>
       <c r="M8">
-        <v>0.9662787238388262</v>
+        <v>1.14474682607886</v>
       </c>
       <c r="N8">
-        <v>0.9583591525825428</v>
+        <v>1.136744652111762</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8214189994278663</v>
+        <v>1.121262506868623</v>
       </c>
       <c r="D9">
-        <v>0.8449307165168759</v>
+        <v>1.123226112099647</v>
       </c>
       <c r="E9">
-        <v>0.8488815242637822</v>
+        <v>1.119779189702397</v>
       </c>
       <c r="F9">
-        <v>0.8485360752040558</v>
+        <v>1.133283969947175</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8553523262856764</v>
+        <v>1.126574254515697</v>
       </c>
       <c r="K9">
-        <v>0.8611651621539282</v>
+        <v>1.126128148900321</v>
       </c>
       <c r="L9">
-        <v>0.8650166867681089</v>
+        <v>1.122690686595263</v>
       </c>
       <c r="M9">
-        <v>0.8646798690365169</v>
+        <v>1.136158758830098</v>
       </c>
       <c r="N9">
-        <v>0.8565670246992854</v>
+        <v>1.128174119176983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8214189994278663</v>
+        <v>1.114908459795771</v>
       </c>
       <c r="D10">
-        <v>0.8449307165168759</v>
+        <v>1.117257403583155</v>
       </c>
       <c r="E10">
-        <v>0.8488815242637822</v>
+        <v>1.113977409134178</v>
       </c>
       <c r="F10">
-        <v>0.8485360752040558</v>
+        <v>1.127156767337604</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8553523262856764</v>
+        <v>1.120740681761555</v>
       </c>
       <c r="K10">
-        <v>0.8611651621539282</v>
+        <v>1.12043576742126</v>
       </c>
       <c r="L10">
-        <v>0.8650166867681089</v>
+        <v>1.1171657353171</v>
       </c>
       <c r="M10">
-        <v>0.8646798690365169</v>
+        <v>1.130305446719618</v>
       </c>
       <c r="N10">
-        <v>0.8565670246992854</v>
+        <v>1.12233226208041</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8214189994278663</v>
+        <v>1.112123128571427</v>
       </c>
       <c r="D11">
-        <v>0.8449307165168759</v>
+        <v>1.114640213447464</v>
       </c>
       <c r="E11">
-        <v>0.8488815242637822</v>
+        <v>1.111432994774486</v>
       </c>
       <c r="F11">
-        <v>0.8485360752040558</v>
+        <v>1.124470582955499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8553523262856764</v>
+        <v>1.118181747421183</v>
       </c>
       <c r="K11">
-        <v>0.8611651621539282</v>
+        <v>1.117938338832573</v>
       </c>
       <c r="L11">
-        <v>0.8650166867681089</v>
+        <v>1.114741274509416</v>
       </c>
       <c r="M11">
-        <v>0.8646798690365169</v>
+        <v>1.127737978669283</v>
       </c>
       <c r="N11">
-        <v>0.8565670246992854</v>
+        <v>1.11976969375976</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8214189994278663</v>
+        <v>1.111083180531546</v>
       </c>
       <c r="D12">
-        <v>0.8449307165168759</v>
+        <v>1.113662928943057</v>
       </c>
       <c r="E12">
-        <v>0.8488815242637822</v>
+        <v>1.110482822726678</v>
       </c>
       <c r="F12">
-        <v>0.8485360752040558</v>
+        <v>1.123467611216252</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8553523262856764</v>
+        <v>1.117226064858702</v>
       </c>
       <c r="K12">
-        <v>0.8611651621539282</v>
+        <v>1.117005562577925</v>
       </c>
       <c r="L12">
-        <v>0.8650166867681089</v>
+        <v>1.113835678015828</v>
       </c>
       <c r="M12">
-        <v>0.8646798690365169</v>
+        <v>1.126779128449707</v>
       </c>
       <c r="N12">
-        <v>0.8565670246992854</v>
+        <v>1.118812654018422</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8214189994278663</v>
+        <v>1.111306499163178</v>
       </c>
       <c r="D13">
-        <v>0.8449307165168759</v>
+        <v>1.113872796351518</v>
       </c>
       <c r="E13">
-        <v>0.8488815242637822</v>
+        <v>1.110686870689613</v>
       </c>
       <c r="F13">
-        <v>0.8485360752040558</v>
+        <v>1.123682991404905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8553523262856764</v>
+        <v>1.117431300211459</v>
       </c>
       <c r="K13">
-        <v>0.8611651621539282</v>
+        <v>1.117205881638884</v>
       </c>
       <c r="L13">
-        <v>0.8650166867681089</v>
+        <v>1.114030163379014</v>
       </c>
       <c r="M13">
-        <v>0.8646798690365169</v>
+        <v>1.126985043176907</v>
       </c>
       <c r="N13">
-        <v>0.8565670246992854</v>
+        <v>1.119018180828921</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8214189994278663</v>
+        <v>1.112037276777103</v>
       </c>
       <c r="D14">
-        <v>0.8449307165168759</v>
+        <v>1.114559537098774</v>
       </c>
       <c r="E14">
-        <v>0.8488815242637822</v>
+        <v>1.111354557876756</v>
       </c>
       <c r="F14">
-        <v>0.8485360752040558</v>
+        <v>1.124387784538375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8553523262856764</v>
+        <v>1.118102857435521</v>
       </c>
       <c r="K14">
-        <v>0.8611651621539282</v>
+        <v>1.11786134102969</v>
       </c>
       <c r="L14">
-        <v>0.8650166867681089</v>
+        <v>1.114666521803918</v>
       </c>
       <c r="M14">
-        <v>0.8646798690365169</v>
+        <v>1.127658826799744</v>
       </c>
       <c r="N14">
-        <v>0.8565670246992854</v>
+        <v>1.11969069174127</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8214189994278663</v>
+        <v>1.112486816273379</v>
       </c>
       <c r="D15">
-        <v>0.8449307165168759</v>
+        <v>1.114981972111544</v>
       </c>
       <c r="E15">
-        <v>0.8488815242637822</v>
+        <v>1.111765264183701</v>
       </c>
       <c r="F15">
-        <v>0.8485360752040558</v>
+        <v>1.124821334163839</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8553523262856764</v>
+        <v>1.118515932557199</v>
       </c>
       <c r="K15">
-        <v>0.8611651621539282</v>
+        <v>1.118264505889452</v>
       </c>
       <c r="L15">
-        <v>0.8650166867681089</v>
+        <v>1.115057928211827</v>
       </c>
       <c r="M15">
-        <v>0.8646798690365169</v>
+        <v>1.128073273966431</v>
       </c>
       <c r="N15">
-        <v>0.8565670246992854</v>
+        <v>1.120104353477001</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8214189994278663</v>
+        <v>1.11509257622649</v>
       </c>
       <c r="D16">
-        <v>0.8449307165168759</v>
+        <v>1.117430389432967</v>
       </c>
       <c r="E16">
-        <v>0.8488815242637822</v>
+        <v>1.114145576023771</v>
       </c>
       <c r="F16">
-        <v>0.8485360752040558</v>
+        <v>1.127334324005294</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8553523262856764</v>
+        <v>1.120909796084228</v>
       </c>
       <c r="K16">
-        <v>0.8611651621539282</v>
+        <v>1.120600807997515</v>
       </c>
       <c r="L16">
-        <v>0.8650166867681089</v>
+        <v>1.117325943637882</v>
       </c>
       <c r="M16">
-        <v>0.8646798690365169</v>
+        <v>1.130475127691016</v>
       </c>
       <c r="N16">
-        <v>0.8565670246992854</v>
+        <v>1.122501616564819</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8214189994278663</v>
+        <v>1.116717830811897</v>
       </c>
       <c r="D17">
-        <v>0.8449307165168759</v>
+        <v>1.118957302163238</v>
       </c>
       <c r="E17">
-        <v>0.8488815242637822</v>
+        <v>1.115629904598439</v>
       </c>
       <c r="F17">
-        <v>0.8485360752040558</v>
+        <v>1.128901640234791</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8553523262856764</v>
+        <v>1.122402420768214</v>
       </c>
       <c r="K17">
-        <v>0.8611651621539282</v>
+        <v>1.122057428110147</v>
       </c>
       <c r="L17">
-        <v>0.8650166867681089</v>
+        <v>1.118739858982833</v>
       </c>
       <c r="M17">
-        <v>0.8646798690365169</v>
+        <v>1.131972768117045</v>
       </c>
       <c r="N17">
-        <v>0.8565670246992854</v>
+        <v>1.123996360947062</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8214189994278663</v>
+        <v>1.117662552167203</v>
       </c>
       <c r="D18">
-        <v>0.8449307165168759</v>
+        <v>1.119844785499603</v>
       </c>
       <c r="E18">
-        <v>0.8488815242637822</v>
+        <v>1.116492596651917</v>
       </c>
       <c r="F18">
-        <v>0.8485360752040558</v>
+        <v>1.129812655341856</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8553523262856764</v>
+        <v>1.123269879347642</v>
       </c>
       <c r="K18">
-        <v>0.8611651621539282</v>
+        <v>1.122903921094696</v>
       </c>
       <c r="L18">
-        <v>0.8650166867681089</v>
+        <v>1.119561487888792</v>
       </c>
       <c r="M18">
-        <v>0.8646798690365169</v>
+        <v>1.132843153594857</v>
       </c>
       <c r="N18">
-        <v>0.8565670246992854</v>
+        <v>1.124865051417172</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8214189994278663</v>
+        <v>1.117984131723657</v>
       </c>
       <c r="D19">
-        <v>0.8449307165168759</v>
+        <v>1.120146868805906</v>
       </c>
       <c r="E19">
-        <v>0.8488815242637822</v>
+        <v>1.116786234623619</v>
       </c>
       <c r="F19">
-        <v>0.8485360752040558</v>
+        <v>1.130122756596414</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8553523262856764</v>
+        <v>1.123565130407842</v>
       </c>
       <c r="K19">
-        <v>0.8611651621539282</v>
+        <v>1.123192029264542</v>
       </c>
       <c r="L19">
-        <v>0.8650166867681089</v>
+        <v>1.119841125493468</v>
       </c>
       <c r="M19">
-        <v>0.8646798690365169</v>
+        <v>1.133139402869376</v>
       </c>
       <c r="N19">
-        <v>0.8565670246992854</v>
+        <v>1.125160721767744</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8214189994278663</v>
+        <v>1.116543795541707</v>
       </c>
       <c r="D20">
-        <v>0.8449307165168759</v>
+        <v>1.118793805201207</v>
       </c>
       <c r="E20">
-        <v>0.8488815242637822</v>
+        <v>1.115470971575041</v>
       </c>
       <c r="F20">
-        <v>0.8485360752040558</v>
+        <v>1.128733812004516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8553523262856764</v>
+        <v>1.122242605172773</v>
       </c>
       <c r="K20">
-        <v>0.8611651621539282</v>
+        <v>1.121901471782345</v>
       </c>
       <c r="L20">
-        <v>0.8650166867681089</v>
+        <v>1.118588479788396</v>
       </c>
       <c r="M20">
-        <v>0.8646798690365169</v>
+        <v>1.131812414244664</v>
       </c>
       <c r="N20">
-        <v>0.8565670246992854</v>
+        <v>1.123836318395144</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8214189994278663</v>
+        <v>1.111822230749608</v>
       </c>
       <c r="D21">
-        <v>0.8449307165168759</v>
+        <v>1.114357452952329</v>
       </c>
       <c r="E21">
-        <v>0.8488815242637822</v>
+        <v>1.111158082263438</v>
       </c>
       <c r="F21">
-        <v>0.8485360752040558</v>
+        <v>1.124180386101842</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8553523262856764</v>
+        <v>1.117905245458829</v>
       </c>
       <c r="K21">
-        <v>0.8611651621539282</v>
+        <v>1.117668467757862</v>
       </c>
       <c r="L21">
-        <v>0.8650166867681089</v>
+        <v>1.114479271137417</v>
       </c>
       <c r="M21">
-        <v>0.8646798690365169</v>
+        <v>1.127460559144061</v>
       </c>
       <c r="N21">
-        <v>0.8565670246992854</v>
+        <v>1.119492799132904</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8214189994278663</v>
+        <v>1.108822501570186</v>
       </c>
       <c r="D22">
-        <v>0.8449307165168759</v>
+        <v>1.111538262170439</v>
       </c>
       <c r="E22">
-        <v>0.8488815242637822</v>
+        <v>1.108416985200761</v>
       </c>
       <c r="F22">
-        <v>0.8485360752040558</v>
+        <v>1.121287238534618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8553523262856764</v>
+        <v>1.115148083048277</v>
       </c>
       <c r="K22">
-        <v>0.8611651621539282</v>
+        <v>1.114977269549086</v>
       </c>
       <c r="L22">
-        <v>0.8650166867681089</v>
+        <v>1.111866352336084</v>
       </c>
       <c r="M22">
-        <v>0.8646798690365169</v>
+        <v>1.124694295365074</v>
       </c>
       <c r="N22">
-        <v>0.8565670246992854</v>
+        <v>1.116731721235479</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8214189994278663</v>
+        <v>1.11041574678678</v>
       </c>
       <c r="D23">
-        <v>0.8449307165168759</v>
+        <v>1.1130356802934</v>
       </c>
       <c r="E23">
-        <v>0.8488815242637822</v>
+        <v>1.109872957988025</v>
       </c>
       <c r="F23">
-        <v>0.8485360752040558</v>
+        <v>1.122823897189452</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8553523262856764</v>
+        <v>1.116612638168604</v>
       </c>
       <c r="K23">
-        <v>0.8611651621539282</v>
+        <v>1.116406820780208</v>
       </c>
       <c r="L23">
-        <v>0.8650166867681089</v>
+        <v>1.113254362070876</v>
       </c>
       <c r="M23">
-        <v>0.8646798690365169</v>
+        <v>1.126163674074597</v>
       </c>
       <c r="N23">
-        <v>0.8565670246992854</v>
+        <v>1.118198356192063</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8214189994278663</v>
+        <v>1.116622444653475</v>
       </c>
       <c r="D24">
-        <v>0.8449307165168759</v>
+        <v>1.11886769212567</v>
       </c>
       <c r="E24">
-        <v>0.8488815242637822</v>
+        <v>1.115542796106206</v>
       </c>
       <c r="F24">
-        <v>0.8485360752040558</v>
+        <v>1.128809656150222</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8553523262856764</v>
+        <v>1.12231482872387</v>
       </c>
       <c r="K24">
-        <v>0.8611651621539282</v>
+        <v>1.121971951387869</v>
       </c>
       <c r="L24">
-        <v>0.8650166867681089</v>
+        <v>1.11865689104603</v>
       </c>
       <c r="M24">
-        <v>0.8646798690365169</v>
+        <v>1.131884881015935</v>
       </c>
       <c r="N24">
-        <v>0.8565670246992854</v>
+        <v>1.123908644511968</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8214189994278663</v>
+        <v>1.123697798587814</v>
       </c>
       <c r="D25">
-        <v>0.8449307165168759</v>
+        <v>1.125513024928253</v>
       </c>
       <c r="E25">
-        <v>0.8488815242637822</v>
+        <v>1.12200177299882</v>
       </c>
       <c r="F25">
-        <v>0.8485360752040558</v>
+        <v>1.135632050216936</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8553523262856764</v>
+        <v>1.128808519098931</v>
       </c>
       <c r="K25">
-        <v>0.8611651621539282</v>
+        <v>1.128307958797856</v>
       </c>
       <c r="L25">
-        <v>0.8650166867681089</v>
+        <v>1.124805950663291</v>
       </c>
       <c r="M25">
-        <v>0.8646798690365169</v>
+        <v>1.138400689581405</v>
       </c>
       <c r="N25">
-        <v>0.8565670246992854</v>
+        <v>1.130411556672198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_220/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.129247026424488</v>
+        <v>0.9211548577842733</v>
       </c>
       <c r="D2">
-        <v>1.130722603127263</v>
+        <v>0.9372930790956255</v>
       </c>
       <c r="E2">
-        <v>1.127063990637527</v>
+        <v>0.9387638939097589</v>
       </c>
       <c r="F2">
-        <v>1.14098192733876</v>
+        <v>0.9429376893739724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.133896276542331</v>
+        <v>0.9459798426808261</v>
       </c>
       <c r="K2">
-        <v>1.13327088222099</v>
+        <v>0.9497011328626348</v>
       </c>
       <c r="L2">
-        <v>1.1296209710029</v>
+        <v>0.951147829728795</v>
       </c>
       <c r="M2">
-        <v>1.14350612594359</v>
+        <v>0.955253710627406</v>
       </c>
       <c r="N2">
-        <v>1.135506539314743</v>
+        <v>0.9473232425628373</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.133225707344481</v>
+        <v>0.9548872257090735</v>
       </c>
       <c r="D3">
-        <v>1.134456356757958</v>
+        <v>0.9686653117937273</v>
       </c>
       <c r="E3">
-        <v>1.130691390990533</v>
+        <v>0.9693133699795925</v>
       </c>
       <c r="F3">
-        <v>1.144817092886283</v>
+        <v>0.9750176694521442</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.137541038352138</v>
+        <v>0.9766881117004423</v>
       </c>
       <c r="K3">
-        <v>1.136825465177155</v>
+        <v>0.9797154724465288</v>
       </c>
       <c r="L3">
-        <v>1.13306876888923</v>
+        <v>0.9803545561207675</v>
       </c>
       <c r="M3">
-        <v>1.147163744512365</v>
+        <v>0.9859805086244902</v>
       </c>
       <c r="N3">
-        <v>1.139156477104379</v>
+        <v>0.9780751208467492</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.135778047712894</v>
+        <v>0.9739141511971832</v>
       </c>
       <c r="D4">
-        <v>1.136850916933994</v>
+        <v>0.9863805688012188</v>
       </c>
       <c r="E4">
-        <v>1.133017400812488</v>
+        <v>0.9865656360145306</v>
       </c>
       <c r="F4">
-        <v>1.147277086463468</v>
+        <v>0.9931374290622277</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.139877754619945</v>
+        <v>0.994009521714059</v>
       </c>
       <c r="K4">
-        <v>1.139104018246755</v>
+        <v>0.9966461960003364</v>
       </c>
       <c r="L4">
-        <v>1.135278475611613</v>
+        <v>0.9968289526412386</v>
       </c>
       <c r="M4">
-        <v>1.149508788926253</v>
+        <v>1.003319391057349</v>
       </c>
       <c r="N4">
-        <v>1.141496511777311</v>
+        <v>0.9954211292493788</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.136845932583764</v>
+        <v>0.9814051706834651</v>
       </c>
       <c r="D5">
-        <v>1.137852628575423</v>
+        <v>0.9933582874206137</v>
       </c>
       <c r="E5">
-        <v>1.133990353537638</v>
+        <v>0.9933610807202317</v>
       </c>
       <c r="F5">
-        <v>1.14830626510601</v>
+        <v>1.000275581028523</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.140855084841424</v>
+        <v>1.000828094108582</v>
       </c>
       <c r="K5">
-        <v>1.140056938218034</v>
+        <v>1.003310907375273</v>
       </c>
       <c r="L5">
-        <v>1.136202508391054</v>
+        <v>1.003313667261425</v>
       </c>
       <c r="M5">
-        <v>1.150489622383769</v>
+        <v>1.010146164435018</v>
       </c>
       <c r="N5">
-        <v>1.142475229919806</v>
+        <v>1.002249384798803</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.137024940099218</v>
+        <v>0.9826365940549455</v>
       </c>
       <c r="D6">
-        <v>1.138020534239541</v>
+        <v>0.9945054801310472</v>
       </c>
       <c r="E6">
-        <v>1.13415343382701</v>
+        <v>0.994478305092404</v>
       </c>
       <c r="F6">
-        <v>1.148478780285695</v>
+        <v>1.001449214189455</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.141018892970114</v>
+        <v>1.001948896741559</v>
       </c>
       <c r="K6">
-        <v>1.140216650092962</v>
+        <v>1.004406409915888</v>
       </c>
       <c r="L6">
-        <v>1.136357373131804</v>
+        <v>1.004379557628081</v>
       </c>
       <c r="M6">
-        <v>1.150654018841646</v>
+        <v>1.011268385205031</v>
       </c>
       <c r="N6">
-        <v>1.142639270674829</v>
+        <v>1.003371779100076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.135792336721849</v>
+        <v>0.9740160801549219</v>
       </c>
       <c r="D7">
-        <v>1.136864321128296</v>
+        <v>0.9864755024912802</v>
       </c>
       <c r="E7">
-        <v>1.133030420500037</v>
+        <v>0.9866580897631165</v>
       </c>
       <c r="F7">
-        <v>1.147290857830433</v>
+        <v>0.9932345410996823</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.139890833281393</v>
+        <v>0.9941023057826178</v>
       </c>
       <c r="K7">
-        <v>1.139116770578635</v>
+        <v>0.9967368869187447</v>
       </c>
       <c r="L7">
-        <v>1.135290841737633</v>
+        <v>0.9969171958890457</v>
       </c>
       <c r="M7">
-        <v>1.14952191439</v>
+        <v>1.003412281775645</v>
       </c>
       <c r="N7">
-        <v>1.141509609011959</v>
+        <v>0.9955140450819572</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.13059633255364</v>
+        <v>0.9332614136582165</v>
       </c>
       <c r="D8">
-        <v>1.131988982407891</v>
+        <v>0.9485467952280198</v>
       </c>
       <c r="E8">
-        <v>1.12829436932283</v>
+        <v>0.9497218599358384</v>
       </c>
       <c r="F8">
-        <v>1.142282620110824</v>
+        <v>0.9544441415995111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.135132633570559</v>
+        <v>0.9570001026673098</v>
       </c>
       <c r="K8">
-        <v>1.134476721655373</v>
+        <v>0.9604719882733188</v>
       </c>
       <c r="L8">
-        <v>1.130790667433169</v>
+        <v>0.9616288838677648</v>
       </c>
       <c r="M8">
-        <v>1.14474682607886</v>
+        <v>0.9662787238388271</v>
       </c>
       <c r="N8">
-        <v>1.136744652111762</v>
+        <v>0.9583591525825437</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.121262506868623</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D9">
-        <v>1.123226112099647</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E9">
-        <v>1.119779189702397</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F9">
-        <v>1.133283969947175</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.126574254515697</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K9">
-        <v>1.126128148900321</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L9">
-        <v>1.122690686595263</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M9">
-        <v>1.136158758830098</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N9">
-        <v>1.128174119176983</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.114908459795771</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D10">
-        <v>1.117257403583155</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E10">
-        <v>1.113977409134178</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F10">
-        <v>1.127156767337604</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.120740681761555</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K10">
-        <v>1.12043576742126</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L10">
-        <v>1.1171657353171</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M10">
-        <v>1.130305446719618</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N10">
-        <v>1.12233226208041</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.112123128571427</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D11">
-        <v>1.114640213447464</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E11">
-        <v>1.111432994774486</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F11">
-        <v>1.124470582955499</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.118181747421183</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K11">
-        <v>1.117938338832573</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L11">
-        <v>1.114741274509416</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M11">
-        <v>1.127737978669283</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N11">
-        <v>1.11976969375976</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.111083180531546</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D12">
-        <v>1.113662928943057</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E12">
-        <v>1.110482822726678</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F12">
-        <v>1.123467611216252</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.117226064858702</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K12">
-        <v>1.117005562577925</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L12">
-        <v>1.113835678015828</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M12">
-        <v>1.126779128449707</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N12">
-        <v>1.118812654018422</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.111306499163178</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D13">
-        <v>1.113872796351518</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E13">
-        <v>1.110686870689613</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F13">
-        <v>1.123682991404905</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.117431300211459</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K13">
-        <v>1.117205881638884</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L13">
-        <v>1.114030163379014</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M13">
-        <v>1.126985043176907</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N13">
-        <v>1.119018180828921</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.112037276777103</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D14">
-        <v>1.114559537098774</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E14">
-        <v>1.111354557876756</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F14">
-        <v>1.124387784538375</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.118102857435521</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K14">
-        <v>1.11786134102969</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L14">
-        <v>1.114666521803918</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M14">
-        <v>1.127658826799744</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N14">
-        <v>1.11969069174127</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.112486816273379</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D15">
-        <v>1.114981972111544</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E15">
-        <v>1.111765264183701</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F15">
-        <v>1.124821334163839</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.118515932557199</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K15">
-        <v>1.118264505889452</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L15">
-        <v>1.115057928211827</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M15">
-        <v>1.128073273966431</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N15">
-        <v>1.120104353477001</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.11509257622649</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D16">
-        <v>1.117430389432967</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E16">
-        <v>1.114145576023771</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F16">
-        <v>1.127334324005294</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.120909796084228</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K16">
-        <v>1.120600807997515</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L16">
-        <v>1.117325943637882</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M16">
-        <v>1.130475127691016</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N16">
-        <v>1.122501616564819</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.116717830811897</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D17">
-        <v>1.118957302163238</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E17">
-        <v>1.115629904598439</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F17">
-        <v>1.128901640234791</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.122402420768214</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K17">
-        <v>1.122057428110147</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L17">
-        <v>1.118739858982833</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M17">
-        <v>1.131972768117045</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N17">
-        <v>1.123996360947062</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.117662552167203</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D18">
-        <v>1.119844785499603</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E18">
-        <v>1.116492596651917</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F18">
-        <v>1.129812655341856</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.123269879347642</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K18">
-        <v>1.122903921094696</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L18">
-        <v>1.119561487888792</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M18">
-        <v>1.132843153594857</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N18">
-        <v>1.124865051417172</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.117984131723657</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D19">
-        <v>1.120146868805906</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E19">
-        <v>1.116786234623619</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F19">
-        <v>1.130122756596414</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.123565130407842</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K19">
-        <v>1.123192029264542</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L19">
-        <v>1.119841125493468</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M19">
-        <v>1.133139402869376</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N19">
-        <v>1.125160721767744</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.116543795541707</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D20">
-        <v>1.118793805201207</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E20">
-        <v>1.115470971575041</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F20">
-        <v>1.128733812004516</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.122242605172773</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K20">
-        <v>1.121901471782345</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L20">
-        <v>1.118588479788396</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M20">
-        <v>1.131812414244664</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N20">
-        <v>1.123836318395144</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.111822230749608</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D21">
-        <v>1.114357452952329</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E21">
-        <v>1.111158082263438</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F21">
-        <v>1.124180386101842</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.117905245458829</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K21">
-        <v>1.117668467757862</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L21">
-        <v>1.114479271137417</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M21">
-        <v>1.127460559144061</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N21">
-        <v>1.119492799132904</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.108822501570186</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D22">
-        <v>1.111538262170439</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E22">
-        <v>1.108416985200761</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F22">
-        <v>1.121287238534618</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.115148083048277</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K22">
-        <v>1.114977269549086</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L22">
-        <v>1.111866352336084</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M22">
-        <v>1.124694295365074</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N22">
-        <v>1.116731721235479</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.11041574678678</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D23">
-        <v>1.1130356802934</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E23">
-        <v>1.109872957988025</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F23">
-        <v>1.122823897189452</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.116612638168604</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K23">
-        <v>1.116406820780208</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L23">
-        <v>1.113254362070876</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M23">
-        <v>1.126163674074597</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N23">
-        <v>1.118198356192063</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.116622444653475</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D24">
-        <v>1.11886769212567</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E24">
-        <v>1.115542796106206</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F24">
-        <v>1.128809656150222</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.12231482872387</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K24">
-        <v>1.121971951387869</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L24">
-        <v>1.11865689104603</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M24">
-        <v>1.131884881015935</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N24">
-        <v>1.123908644511968</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.123697798587814</v>
+        <v>0.8214189994278602</v>
       </c>
       <c r="D25">
-        <v>1.125513024928253</v>
+        <v>0.8449307165168698</v>
       </c>
       <c r="E25">
-        <v>1.12200177299882</v>
+        <v>0.8488815242637766</v>
       </c>
       <c r="F25">
-        <v>1.135632050216936</v>
+        <v>0.8485360752040502</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.128808519098931</v>
+        <v>0.8553523262856706</v>
       </c>
       <c r="K25">
-        <v>1.128307958797856</v>
+        <v>0.8611651621539227</v>
       </c>
       <c r="L25">
-        <v>1.124805950663291</v>
+        <v>0.8650166867681036</v>
       </c>
       <c r="M25">
-        <v>1.138400689581405</v>
+        <v>0.8646798690365114</v>
       </c>
       <c r="N25">
-        <v>1.130411556672198</v>
+        <v>0.8565670246992796</v>
       </c>
     </row>
   </sheetData>
